--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H2">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I2">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J2">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.3842875650943</v>
+        <v>11.541773</v>
       </c>
       <c r="N2">
-        <v>11.3842875650943</v>
+        <v>23.083546</v>
       </c>
       <c r="O2">
-        <v>0.2314918227471734</v>
+        <v>0.2250656192673999</v>
       </c>
       <c r="P2">
-        <v>0.2314918227471734</v>
+        <v>0.1829004464319742</v>
       </c>
       <c r="Q2">
-        <v>2218.026647652087</v>
+        <v>2251.560287779861</v>
       </c>
       <c r="R2">
-        <v>2218.026647652087</v>
+        <v>9006.241151119442</v>
       </c>
       <c r="S2">
-        <v>0.06201379039101278</v>
+        <v>0.05943095172725091</v>
       </c>
       <c r="T2">
-        <v>0.06201379039101278</v>
+        <v>0.03625647005321762</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H3">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I3">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J3">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.190744212588671</v>
+        <v>8.826438333333334</v>
       </c>
       <c r="N3">
-        <v>8.190744212588671</v>
+        <v>26.479315</v>
       </c>
       <c r="O3">
-        <v>0.1665532688441278</v>
+        <v>0.1721163472386074</v>
       </c>
       <c r="P3">
-        <v>0.1665532688441278</v>
+        <v>0.20980652343071</v>
       </c>
       <c r="Q3">
-        <v>1595.821330385842</v>
+        <v>1721.854868733876</v>
       </c>
       <c r="R3">
-        <v>1595.821330385842</v>
+        <v>10331.12921240326</v>
       </c>
       <c r="S3">
-        <v>0.04461755659645156</v>
+        <v>0.04544913771150155</v>
       </c>
       <c r="T3">
-        <v>0.04461755659645156</v>
+        <v>0.04159007854890302</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H4">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I4">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J4">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.36062354705746</v>
+        <v>3.407739666666667</v>
       </c>
       <c r="N4">
-        <v>3.36062354705746</v>
+        <v>10.223219</v>
       </c>
       <c r="O4">
-        <v>0.06833601716638985</v>
+        <v>0.06645123226565072</v>
       </c>
       <c r="P4">
-        <v>0.06833601716638985</v>
+        <v>0.0810027765695895</v>
       </c>
       <c r="Q4">
-        <v>654.7579317089027</v>
+        <v>664.7792591795771</v>
       </c>
       <c r="R4">
-        <v>654.7579317089027</v>
+        <v>3988.675555077463</v>
       </c>
       <c r="S4">
-        <v>0.01830637209739149</v>
+        <v>0.01754714909301238</v>
       </c>
       <c r="T4">
-        <v>0.01830637209739149</v>
+        <v>0.0160572311342887</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H5">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I5">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J5">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.46296520173015</v>
+        <v>2.474605</v>
       </c>
       <c r="N5">
-        <v>2.46296520173015</v>
+        <v>7.423815</v>
       </c>
       <c r="O5">
-        <v>0.0500827390955535</v>
+        <v>0.0482550217169584</v>
       </c>
       <c r="P5">
-        <v>0.0500827390955535</v>
+        <v>0.05882194519543864</v>
       </c>
       <c r="Q5">
-        <v>479.8651139512057</v>
+        <v>482.7440589882925</v>
       </c>
       <c r="R5">
-        <v>479.8651139512057</v>
+        <v>2896.464353929755</v>
       </c>
       <c r="S5">
-        <v>0.01341654511862173</v>
+        <v>0.01274224768577703</v>
       </c>
       <c r="T5">
-        <v>0.01341654511862173</v>
+        <v>0.01166031103835294</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H6">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I6">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J6">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.696497647771929</v>
+        <v>8.935845</v>
       </c>
       <c r="N6">
-        <v>8.696497647771929</v>
+        <v>26.807535</v>
       </c>
       <c r="O6">
-        <v>0.1768374244315352</v>
+        <v>0.174249787151636</v>
       </c>
       <c r="P6">
-        <v>0.1768374244315352</v>
+        <v>0.2124071457323227</v>
       </c>
       <c r="Q6">
-        <v>1694.358422844535</v>
+        <v>1743.197837954033</v>
       </c>
       <c r="R6">
-        <v>1694.358422844535</v>
+        <v>10459.1870277242</v>
       </c>
       <c r="S6">
-        <v>0.04737255442478774</v>
+        <v>0.04601249503323246</v>
       </c>
       <c r="T6">
-        <v>0.04737255442478774</v>
+        <v>0.04210560153661327</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H7">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I7">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J7">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.082807119161</v>
+        <v>16.095412</v>
       </c>
       <c r="N7">
-        <v>15.082807119161</v>
+        <v>32.190824</v>
       </c>
       <c r="O7">
-        <v>0.3066987277152201</v>
+        <v>0.3138619923597475</v>
       </c>
       <c r="P7">
-        <v>0.3066987277152201</v>
+        <v>0.2550611626399649</v>
       </c>
       <c r="Q7">
-        <v>2938.617627182065</v>
+        <v>3139.880716303762</v>
       </c>
       <c r="R7">
-        <v>2938.617627182065</v>
+        <v>12559.52286521505</v>
       </c>
       <c r="S7">
-        <v>0.08216078817822603</v>
+        <v>0.08287857104815831</v>
       </c>
       <c r="T7">
-        <v>0.08216078817822603</v>
+        <v>0.05056093402393198</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H8">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I8">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J8">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.3842875650943</v>
+        <v>11.541773</v>
       </c>
       <c r="N8">
-        <v>11.3842875650943</v>
+        <v>23.083546</v>
       </c>
       <c r="O8">
-        <v>0.2314918227471734</v>
+        <v>0.2250656192673999</v>
       </c>
       <c r="P8">
-        <v>0.2314918227471734</v>
+        <v>0.1829004464319742</v>
       </c>
       <c r="Q8">
-        <v>669.4303273900748</v>
+        <v>720.2980729729637</v>
       </c>
       <c r="R8">
-        <v>669.4303273900748</v>
+        <v>4321.788437837782</v>
       </c>
       <c r="S8">
-        <v>0.01871659749809593</v>
+        <v>0.01901259328316661</v>
       </c>
       <c r="T8">
-        <v>0.01871659749809593</v>
+        <v>0.01739824533271923</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H9">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I9">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J9">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.190744212588671</v>
+        <v>8.826438333333334</v>
       </c>
       <c r="N9">
-        <v>8.190744212588671</v>
+        <v>26.479315</v>
       </c>
       <c r="O9">
-        <v>0.1665532688441278</v>
+        <v>0.1721163472386074</v>
       </c>
       <c r="P9">
-        <v>0.1665532688441278</v>
+        <v>0.20980652343071</v>
       </c>
       <c r="Q9">
-        <v>481.6403792024359</v>
+        <v>550.8396779866229</v>
       </c>
       <c r="R9">
-        <v>481.6403792024359</v>
+        <v>4957.557101879605</v>
       </c>
       <c r="S9">
-        <v>0.01346617974645399</v>
+        <v>0.01453966233529438</v>
       </c>
       <c r="T9">
-        <v>0.01346617974645399</v>
+        <v>0.01995766242380405</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H10">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I10">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J10">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.36062354705746</v>
+        <v>3.407739666666667</v>
       </c>
       <c r="N10">
-        <v>3.36062354705746</v>
+        <v>10.223219</v>
       </c>
       <c r="O10">
-        <v>0.06833601716638985</v>
+        <v>0.06645123226565072</v>
       </c>
       <c r="P10">
-        <v>0.06833601716638985</v>
+        <v>0.0810027765695895</v>
       </c>
       <c r="Q10">
-        <v>197.6147658321063</v>
+        <v>212.6699524495526</v>
       </c>
       <c r="R10">
-        <v>197.6147658321063</v>
+        <v>1914.029572045973</v>
       </c>
       <c r="S10">
-        <v>0.005525109754408853</v>
+        <v>0.005613519543076016</v>
       </c>
       <c r="T10">
-        <v>0.005525109754408853</v>
+        <v>0.007705318422573229</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H11">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I11">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J11">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.46296520173015</v>
+        <v>2.474605</v>
       </c>
       <c r="N11">
-        <v>2.46296520173015</v>
+        <v>7.423815</v>
       </c>
       <c r="O11">
-        <v>0.0500827390955535</v>
+        <v>0.0482550217169584</v>
       </c>
       <c r="P11">
-        <v>0.0500827390955535</v>
+        <v>0.05882194519543864</v>
       </c>
       <c r="Q11">
-        <v>144.8297569713506</v>
+        <v>154.4349566456783</v>
       </c>
       <c r="R11">
-        <v>144.8297569713506</v>
+        <v>1389.914609811105</v>
       </c>
       <c r="S11">
-        <v>0.004049294087927233</v>
+        <v>0.004076380500767995</v>
       </c>
       <c r="T11">
-        <v>0.004049294087927233</v>
+        <v>0.005595386197368507</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H12">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I12">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J12">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.696497647771929</v>
+        <v>8.935845</v>
       </c>
       <c r="N12">
-        <v>8.696497647771929</v>
+        <v>26.807535</v>
       </c>
       <c r="O12">
-        <v>0.1768374244315352</v>
+        <v>0.174249787151636</v>
       </c>
       <c r="P12">
-        <v>0.1768374244315352</v>
+        <v>0.2124071457323227</v>
       </c>
       <c r="Q12">
-        <v>511.3802013702695</v>
+        <v>557.6675207427051</v>
       </c>
       <c r="R12">
-        <v>511.3802013702695</v>
+        <v>5019.007686684346</v>
       </c>
       <c r="S12">
-        <v>0.01429767521118806</v>
+        <v>0.0147198863317116</v>
       </c>
       <c r="T12">
-        <v>0.01429767521118806</v>
+        <v>0.02020504435044154</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H13">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I13">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J13">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.082807119161</v>
+        <v>16.095412</v>
       </c>
       <c r="N13">
-        <v>15.082807119161</v>
+        <v>32.190824</v>
       </c>
       <c r="O13">
-        <v>0.3066987277152201</v>
+        <v>0.3138619923597475</v>
       </c>
       <c r="P13">
-        <v>0.3066987277152201</v>
+        <v>0.2550611626399649</v>
       </c>
       <c r="Q13">
-        <v>886.9143940723762</v>
+        <v>1004.481222019001</v>
       </c>
       <c r="R13">
-        <v>886.9143940723762</v>
+        <v>6026.887332114008</v>
       </c>
       <c r="S13">
-        <v>0.02479723288581685</v>
+        <v>0.02651373598155148</v>
       </c>
       <c r="T13">
-        <v>0.02479723288581685</v>
+        <v>0.02426247048067858</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H14">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I14">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J14">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.3842875650943</v>
+        <v>11.541773</v>
       </c>
       <c r="N14">
-        <v>11.3842875650943</v>
+        <v>23.083546</v>
       </c>
       <c r="O14">
-        <v>0.2314918227471734</v>
+        <v>0.2250656192673999</v>
       </c>
       <c r="P14">
-        <v>0.2314918227471734</v>
+        <v>0.1829004464319742</v>
       </c>
       <c r="Q14">
-        <v>1625.18186802222</v>
+        <v>1648.88205931006</v>
       </c>
       <c r="R14">
-        <v>1625.18186802222</v>
+        <v>9893.292355860363</v>
       </c>
       <c r="S14">
-        <v>0.04543844764781797</v>
+        <v>0.04352298741572379</v>
       </c>
       <c r="T14">
-        <v>0.04543844764781797</v>
+        <v>0.03982747652536413</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H15">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I15">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J15">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.190744212588671</v>
+        <v>8.826438333333334</v>
       </c>
       <c r="N15">
-        <v>8.190744212588671</v>
+        <v>26.479315</v>
       </c>
       <c r="O15">
-        <v>0.1665532688441278</v>
+        <v>0.1721163472386074</v>
       </c>
       <c r="P15">
-        <v>0.1665532688441278</v>
+        <v>0.20980652343071</v>
       </c>
       <c r="Q15">
-        <v>1169.282566326036</v>
+        <v>1260.963615853468</v>
       </c>
       <c r="R15">
-        <v>1169.282566326036</v>
+        <v>11348.67254268121</v>
       </c>
       <c r="S15">
-        <v>0.0326919624941234</v>
+        <v>0.03328370472260447</v>
       </c>
       <c r="T15">
-        <v>0.0326919624941234</v>
+        <v>0.04568640782357365</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H16">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I16">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J16">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.36062354705746</v>
+        <v>3.407739666666667</v>
       </c>
       <c r="N16">
-        <v>3.36062354705746</v>
+        <v>10.223219</v>
       </c>
       <c r="O16">
-        <v>0.06833601716638985</v>
+        <v>0.06645123226565072</v>
       </c>
       <c r="P16">
-        <v>0.06833601716638985</v>
+        <v>0.0810027765695895</v>
       </c>
       <c r="Q16">
-        <v>479.7510975278199</v>
+        <v>486.8368836543495</v>
       </c>
       <c r="R16">
-        <v>479.7510975278199</v>
+        <v>4381.531952889146</v>
       </c>
       <c r="S16">
-        <v>0.01341335733429621</v>
+        <v>0.01285027964320526</v>
       </c>
       <c r="T16">
-        <v>0.01341335733429621</v>
+        <v>0.01763875510011142</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H17">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I17">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J17">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.46296520173015</v>
+        <v>2.474605</v>
       </c>
       <c r="N17">
-        <v>2.46296520173015</v>
+        <v>7.423815</v>
       </c>
       <c r="O17">
-        <v>0.0500827390955535</v>
+        <v>0.0482550217169584</v>
       </c>
       <c r="P17">
-        <v>0.0500827390955535</v>
+        <v>0.05882194519543864</v>
       </c>
       <c r="Q17">
-        <v>351.6044692769822</v>
+        <v>353.5272950160233</v>
       </c>
       <c r="R17">
-        <v>351.6044692769822</v>
+        <v>3181.74565514421</v>
       </c>
       <c r="S17">
-        <v>0.009830506717025803</v>
+        <v>0.009331512781778602</v>
       </c>
       <c r="T17">
-        <v>0.009830506717025803</v>
+        <v>0.01280876939969042</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H18">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I18">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J18">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.696497647771929</v>
+        <v>8.935845</v>
       </c>
       <c r="N18">
-        <v>8.696497647771929</v>
+        <v>26.807535</v>
       </c>
       <c r="O18">
-        <v>0.1768374244315352</v>
+        <v>0.174249787151636</v>
       </c>
       <c r="P18">
-        <v>0.1768374244315352</v>
+        <v>0.2124071457323227</v>
       </c>
       <c r="Q18">
-        <v>1241.482193035218</v>
+        <v>1276.59368324741</v>
       </c>
       <c r="R18">
-        <v>1241.482193035218</v>
+        <v>11489.34314922669</v>
       </c>
       <c r="S18">
-        <v>0.03471059131528392</v>
+        <v>0.03369626741782726</v>
       </c>
       <c r="T18">
-        <v>0.03471059131528392</v>
+        <v>0.04625270618800843</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H19">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I19">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J19">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.082807119161</v>
+        <v>16.095412</v>
       </c>
       <c r="N19">
-        <v>15.082807119161</v>
+        <v>32.190824</v>
       </c>
       <c r="O19">
-        <v>0.3066987277152201</v>
+        <v>0.3138619923597475</v>
       </c>
       <c r="P19">
-        <v>0.3066987277152201</v>
+        <v>0.2550611626399649</v>
       </c>
       <c r="Q19">
-        <v>2153.16984122</v>
+        <v>2299.424541099869</v>
       </c>
       <c r="R19">
-        <v>2153.16984122</v>
+        <v>13796.54724659922</v>
       </c>
       <c r="S19">
-        <v>0.0602004594268571</v>
+        <v>0.06069435033308052</v>
       </c>
       <c r="T19">
-        <v>0.0602004594268571</v>
+        <v>0.05554082926393233</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H20">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I20">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J20">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.3842875650943</v>
+        <v>11.541773</v>
       </c>
       <c r="N20">
-        <v>11.3842875650943</v>
+        <v>23.083546</v>
       </c>
       <c r="O20">
-        <v>0.2314918227471734</v>
+        <v>0.2250656192673999</v>
       </c>
       <c r="P20">
-        <v>0.2314918227471734</v>
+        <v>0.1829004464319742</v>
       </c>
       <c r="Q20">
-        <v>1602.389362504329</v>
+        <v>1634.509439493608</v>
       </c>
       <c r="R20">
-        <v>1602.389362504329</v>
+        <v>9807.05663696165</v>
       </c>
       <c r="S20">
-        <v>0.04480119215714623</v>
+        <v>0.04314361561780139</v>
       </c>
       <c r="T20">
-        <v>0.04480119215714623</v>
+        <v>0.03948031696042396</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H21">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I21">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J21">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.190744212588671</v>
+        <v>8.826438333333334</v>
       </c>
       <c r="N21">
-        <v>8.190744212588671</v>
+        <v>26.479315</v>
       </c>
       <c r="O21">
-        <v>0.1665532688441278</v>
+        <v>0.1721163472386074</v>
       </c>
       <c r="P21">
-        <v>0.1665532688441278</v>
+        <v>0.20980652343071</v>
       </c>
       <c r="Q21">
-        <v>1152.883860513872</v>
+        <v>1249.972319932264</v>
       </c>
       <c r="R21">
-        <v>1152.883860513872</v>
+        <v>11249.75087939037</v>
       </c>
       <c r="S21">
-        <v>0.03223347120142592</v>
+        <v>0.03299358449759503</v>
       </c>
       <c r="T21">
-        <v>0.03223347120142592</v>
+        <v>0.04528817838883629</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H22">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I22">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J22">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.36062354705746</v>
+        <v>3.407739666666667</v>
       </c>
       <c r="N22">
-        <v>3.36062354705746</v>
+        <v>10.223219</v>
       </c>
       <c r="O22">
-        <v>0.06833601716638985</v>
+        <v>0.06645123226565072</v>
       </c>
       <c r="P22">
-        <v>0.06833601716638985</v>
+        <v>0.0810027765695895</v>
       </c>
       <c r="Q22">
-        <v>473.0227862213908</v>
+        <v>482.5933288155528</v>
       </c>
       <c r="R22">
-        <v>473.0227862213908</v>
+        <v>4343.339959339975</v>
       </c>
       <c r="S22">
-        <v>0.01322524052898909</v>
+        <v>0.01273826909472239</v>
       </c>
       <c r="T22">
-        <v>0.01322524052898909</v>
+        <v>0.01748500540063596</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H23">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I23">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J23">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.46296520173015</v>
+        <v>2.474605</v>
       </c>
       <c r="N23">
-        <v>2.46296520173015</v>
+        <v>7.423815</v>
       </c>
       <c r="O23">
-        <v>0.0500827390955535</v>
+        <v>0.0482550217169584</v>
       </c>
       <c r="P23">
-        <v>0.0500827390955535</v>
+        <v>0.05882194519543864</v>
       </c>
       <c r="Q23">
-        <v>346.6733615875619</v>
+        <v>350.4457444725417</v>
       </c>
       <c r="R23">
-        <v>346.6733615875619</v>
+        <v>3154.011700252875</v>
       </c>
       <c r="S23">
-        <v>0.009692637914155049</v>
+        <v>0.009250173862013177</v>
       </c>
       <c r="T23">
-        <v>0.009692637914155049</v>
+        <v>0.01269712067875316</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H24">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I24">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J24">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.696497647771929</v>
+        <v>8.935845</v>
       </c>
       <c r="N24">
-        <v>8.696497647771929</v>
+        <v>26.807535</v>
       </c>
       <c r="O24">
-        <v>0.1768374244315352</v>
+        <v>0.174249787151636</v>
       </c>
       <c r="P24">
-        <v>0.1768374244315352</v>
+        <v>0.2124071457323227</v>
       </c>
       <c r="Q24">
-        <v>1224.070917231633</v>
+        <v>1265.466146522875</v>
       </c>
       <c r="R24">
-        <v>1224.070917231633</v>
+        <v>11389.19531870588</v>
       </c>
       <c r="S24">
-        <v>0.03422378958579769</v>
+        <v>0.03340255105521937</v>
       </c>
       <c r="T24">
-        <v>0.03422378958579769</v>
+        <v>0.0458495405657198</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H25">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I25">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J25">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.082807119161</v>
+        <v>16.095412</v>
       </c>
       <c r="N25">
-        <v>15.082807119161</v>
+        <v>32.190824</v>
       </c>
       <c r="O25">
-        <v>0.3066987277152201</v>
+        <v>0.3138619923597475</v>
       </c>
       <c r="P25">
-        <v>0.3066987277152201</v>
+        <v>0.2550611626399649</v>
       </c>
       <c r="Q25">
-        <v>2122.972522105993</v>
+        <v>2279.381412763767</v>
       </c>
       <c r="R25">
-        <v>2122.972522105993</v>
+        <v>13676.2884765826</v>
       </c>
       <c r="S25">
-        <v>0.0593561728084394</v>
+        <v>0.06016530289914278</v>
       </c>
       <c r="T25">
-        <v>0.0593561728084394</v>
+        <v>0.0550567029319162</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H26">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I26">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J26">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>11.3842875650943</v>
+        <v>11.541773</v>
       </c>
       <c r="N26">
-        <v>11.3842875650943</v>
+        <v>23.083546</v>
       </c>
       <c r="O26">
-        <v>0.2314918227471734</v>
+        <v>0.2250656192673999</v>
       </c>
       <c r="P26">
-        <v>0.2314918227471734</v>
+        <v>0.1829004464319742</v>
       </c>
       <c r="Q26">
-        <v>1561.92229749959</v>
+        <v>1659.520373097682</v>
       </c>
       <c r="R26">
-        <v>1561.92229749959</v>
+        <v>9957.122238586091</v>
       </c>
       <c r="S26">
-        <v>0.04366977379046438</v>
+        <v>0.04380379051773394</v>
       </c>
       <c r="T26">
-        <v>0.04366977379046438</v>
+        <v>0.0400844368035439</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H27">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I27">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J27">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>8.190744212588671</v>
+        <v>8.826438333333334</v>
       </c>
       <c r="N27">
-        <v>8.190744212588671</v>
+        <v>26.479315</v>
       </c>
       <c r="O27">
-        <v>0.1665532688441278</v>
+        <v>0.1721163472386074</v>
       </c>
       <c r="P27">
-        <v>0.1665532688441278</v>
+        <v>0.20980652343071</v>
       </c>
       <c r="Q27">
-        <v>1123.768698357893</v>
+        <v>1269.099144131237</v>
       </c>
       <c r="R27">
-        <v>1123.768698357893</v>
+        <v>11421.89229718113</v>
       </c>
       <c r="S27">
-        <v>0.03141944060127399</v>
+        <v>0.03349844566957175</v>
       </c>
       <c r="T27">
-        <v>0.03141944060127399</v>
+        <v>0.04598116895552495</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H28">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I28">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J28">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.36062354705746</v>
+        <v>3.407739666666667</v>
       </c>
       <c r="N28">
-        <v>3.36062354705746</v>
+        <v>10.223219</v>
       </c>
       <c r="O28">
-        <v>0.06833601716638985</v>
+        <v>0.06645123226565072</v>
       </c>
       <c r="P28">
-        <v>0.06833601716638985</v>
+        <v>0.0810027765695895</v>
       </c>
       <c r="Q28">
-        <v>461.0769731208674</v>
+        <v>489.9778745472153</v>
       </c>
       <c r="R28">
-        <v>461.0769731208674</v>
+        <v>4409.800870924938</v>
       </c>
       <c r="S28">
-        <v>0.01289124763018859</v>
+        <v>0.01293318751786568</v>
       </c>
       <c r="T28">
-        <v>0.01289124763018859</v>
+        <v>0.01775255742485532</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H29">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I29">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J29">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.46296520173015</v>
+        <v>2.474605</v>
       </c>
       <c r="N29">
-        <v>2.46296520173015</v>
+        <v>7.423815</v>
       </c>
       <c r="O29">
-        <v>0.0500827390955535</v>
+        <v>0.0482550217169584</v>
       </c>
       <c r="P29">
-        <v>0.0500827390955535</v>
+        <v>0.05882194519543864</v>
       </c>
       <c r="Q29">
-        <v>337.9184024078218</v>
+        <v>355.80819453557</v>
       </c>
       <c r="R29">
-        <v>337.9184024078218</v>
+        <v>3202.27375082013</v>
       </c>
       <c r="S29">
-        <v>0.009447858076172037</v>
+        <v>0.009391718155792615</v>
       </c>
       <c r="T29">
-        <v>0.009447858076172037</v>
+        <v>0.01289140945713892</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H30">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I30">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J30">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.696497647771929</v>
+        <v>8.935845</v>
       </c>
       <c r="N30">
-        <v>8.696497647771929</v>
+        <v>26.807535</v>
       </c>
       <c r="O30">
-        <v>0.1768374244315352</v>
+        <v>0.174249787151636</v>
       </c>
       <c r="P30">
-        <v>0.1768374244315352</v>
+        <v>0.2124071457323227</v>
       </c>
       <c r="Q30">
-        <v>1193.157982749463</v>
+        <v>1284.83005412973</v>
       </c>
       <c r="R30">
-        <v>1193.157982749463</v>
+        <v>11563.47048716757</v>
       </c>
       <c r="S30">
-        <v>0.03335949508267361</v>
+        <v>0.03391367015093264</v>
       </c>
       <c r="T30">
-        <v>0.03335949508267361</v>
+        <v>0.04655112098315793</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>137.199828146352</v>
+        <v>143.783834</v>
       </c>
       <c r="H31">
-        <v>137.199828146352</v>
+        <v>431.351502</v>
       </c>
       <c r="I31">
-        <v>0.1886449951977736</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J31">
-        <v>0.1886449951977736</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>15.082807119161</v>
+        <v>16.095412</v>
       </c>
       <c r="N31">
-        <v>15.082807119161</v>
+        <v>32.190824</v>
       </c>
       <c r="O31">
-        <v>0.3066987277152201</v>
+        <v>0.3138619923597475</v>
       </c>
       <c r="P31">
-        <v>0.3066987277152201</v>
+        <v>0.2550611626399649</v>
       </c>
       <c r="Q31">
-        <v>2069.358544713464</v>
+        <v>2314.260047169608</v>
       </c>
       <c r="R31">
-        <v>2069.358544713464</v>
+        <v>13885.56028301765</v>
       </c>
       <c r="S31">
-        <v>0.05785718001700096</v>
+        <v>0.06108594022292945</v>
       </c>
       <c r="T31">
-        <v>0.05785718001700096</v>
+        <v>0.05589916948990438</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H32">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I32">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J32">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>11.3842875650943</v>
+        <v>11.541773</v>
       </c>
       <c r="N32">
-        <v>11.3842875650943</v>
+        <v>23.083546</v>
       </c>
       <c r="O32">
-        <v>0.2314918227471734</v>
+        <v>0.2250656192673999</v>
       </c>
       <c r="P32">
-        <v>0.2314918227471734</v>
+        <v>0.1829004464319742</v>
       </c>
       <c r="Q32">
-        <v>602.7406483565535</v>
+        <v>611.9115006740085</v>
       </c>
       <c r="R32">
-        <v>602.7406483565535</v>
+        <v>2447.646002696034</v>
       </c>
       <c r="S32">
-        <v>0.0168520212626361</v>
+        <v>0.01615168070572325</v>
       </c>
       <c r="T32">
-        <v>0.0168520212626361</v>
+        <v>0.00985350075670538</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H33">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I33">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J33">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>8.190744212588671</v>
+        <v>8.826438333333334</v>
       </c>
       <c r="N33">
-        <v>8.190744212588671</v>
+        <v>26.479315</v>
       </c>
       <c r="O33">
-        <v>0.1665532688441278</v>
+        <v>0.1721163472386074</v>
       </c>
       <c r="P33">
-        <v>0.1665532688441278</v>
+        <v>0.20980652343071</v>
       </c>
       <c r="Q33">
-        <v>433.6586236942522</v>
+        <v>467.9522917455226</v>
       </c>
       <c r="R33">
-        <v>433.6586236942522</v>
+        <v>2807.713750473135</v>
       </c>
       <c r="S33">
-        <v>0.01212465820439898</v>
+        <v>0.01235181230204026</v>
       </c>
       <c r="T33">
-        <v>0.01212465820439898</v>
+        <v>0.01130302729006801</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H34">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I34">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J34">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>3.36062354705746</v>
+        <v>3.407739666666667</v>
       </c>
       <c r="N34">
-        <v>3.36062354705746</v>
+        <v>10.223219</v>
       </c>
       <c r="O34">
-        <v>0.06833601716638985</v>
+        <v>0.06645123226565072</v>
       </c>
       <c r="P34">
-        <v>0.06833601716638985</v>
+        <v>0.0810027765695895</v>
       </c>
       <c r="Q34">
-        <v>177.9280788590072</v>
+        <v>180.6685240938585</v>
       </c>
       <c r="R34">
-        <v>177.9280788590072</v>
+        <v>1084.011144563151</v>
       </c>
       <c r="S34">
-        <v>0.004974689821115632</v>
+        <v>0.004768827373768986</v>
       </c>
       <c r="T34">
-        <v>0.004974689821115632</v>
+        <v>0.004363909087124865</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H35">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I35">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J35">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.46296520173015</v>
+        <v>2.474605</v>
       </c>
       <c r="N35">
-        <v>2.46296520173015</v>
+        <v>7.423815</v>
       </c>
       <c r="O35">
-        <v>0.0500827390955535</v>
+        <v>0.0482550217169584</v>
       </c>
       <c r="P35">
-        <v>0.0500827390955535</v>
+        <v>0.05882194519543864</v>
       </c>
       <c r="Q35">
-        <v>130.4015937828397</v>
+        <v>131.1964166272725</v>
       </c>
       <c r="R35">
-        <v>130.4015937828397</v>
+        <v>787.1784997636352</v>
       </c>
       <c r="S35">
-        <v>0.003645897181651656</v>
+        <v>0.003462988730828989</v>
       </c>
       <c r="T35">
-        <v>0.003645897181651656</v>
+        <v>0.003168948424134696</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H36">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I36">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J36">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.696497647771929</v>
+        <v>8.935845</v>
       </c>
       <c r="N36">
-        <v>8.696497647771929</v>
+        <v>26.807535</v>
       </c>
       <c r="O36">
-        <v>0.1768374244315352</v>
+        <v>0.174249787151636</v>
       </c>
       <c r="P36">
-        <v>0.1768374244315352</v>
+        <v>0.2124071457323227</v>
       </c>
       <c r="Q36">
-        <v>460.4357190274362</v>
+        <v>473.7527175192526</v>
       </c>
       <c r="R36">
-        <v>460.4357190274362</v>
+        <v>2842.516305115515</v>
       </c>
       <c r="S36">
-        <v>0.01287331881180423</v>
+        <v>0.01250491716271266</v>
       </c>
       <c r="T36">
-        <v>0.01287331881180423</v>
+        <v>0.0114431321083817</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>52.9449598765086</v>
+        <v>53.01711450000001</v>
       </c>
       <c r="H37">
-        <v>52.9449598765086</v>
+        <v>106.034229</v>
       </c>
       <c r="I37">
-        <v>0.07279747968048636</v>
+        <v>0.07176431814995911</v>
       </c>
       <c r="J37">
-        <v>0.07279747968048636</v>
+        <v>0.05387357411601602</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>15.082807119161</v>
+        <v>16.095412</v>
       </c>
       <c r="N37">
-        <v>15.082807119161</v>
+        <v>32.190824</v>
       </c>
       <c r="O37">
-        <v>0.3066987277152201</v>
+        <v>0.3138619923597475</v>
       </c>
       <c r="P37">
-        <v>0.3066987277152201</v>
+        <v>0.2550611626399649</v>
       </c>
       <c r="Q37">
-        <v>798.5586177490974</v>
+        <v>853.332300928674</v>
       </c>
       <c r="R37">
-        <v>798.5586177490974</v>
+        <v>3413.329203714696</v>
       </c>
       <c r="S37">
-        <v>0.02232689439887975</v>
+        <v>0.02252409187488495</v>
       </c>
       <c r="T37">
-        <v>0.02232689439887975</v>
+        <v>0.01374105644960136</v>
       </c>
     </row>
   </sheetData>
